--- a/test-data/public-use-data.xlsx
+++ b/test-data/public-use-data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popkhadzeg/eclipse-workspace/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E13AF0-BA1B-B941-8BBD-6E07ACDB8620}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A789F5-8B67-0A42-B01F-6FB2A1157B14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="9100" windowWidth="22620" windowHeight="9920" xr2:uid="{150E7FB9-AAC7-684F-9B42-02331F762CE7}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>path</t>
   </si>
@@ -85,24 +85,35 @@
     <t>espanol/esp-press-releae-no-date</t>
   </si>
   <si>
-    <t>espanol/cancer/sobrellevar/esparticle-no-date</t>
-  </si>
-  <si>
-    <t>about-cancer/coping/article-no-date</t>
-  </si>
-  <si>
     <t>/about-cancer/treatment/drugs/bevacizumab</t>
   </si>
   <si>
     <t>PDQ Drug</t>
+  </si>
+  <si>
+    <t>news-events/press-releases/2019/brca-exchange</t>
+  </si>
+  <si>
+    <t>about-nci/organization/nci-at-a-glance</t>
+  </si>
+  <si>
+    <t>Infogrpahic</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -130,9 +141,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,7 +462,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,17 +473,17 @@
     <col min="4" max="4" width="27.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -569,7 +581,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -578,14 +590,14 @@
     <col min="2" max="2" width="24.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -602,10 +614,10 @@
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -617,23 +629,23 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test-data/public-use-data.xlsx
+++ b/test-data/public-use-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/popkhadzeg/eclipse-workspace/cgov-digital-platform-qa/test-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A789F5-8B67-0A42-B01F-6FB2A1157B14}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6298D4F-7ED9-4D46-A883-E08ABCDFC8A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="9100" windowWidth="22620" windowHeight="9920" xr2:uid="{150E7FB9-AAC7-684F-9B42-02331F762CE7}"/>
+    <workbookView xWindow="10940" yWindow="3860" windowWidth="22620" windowHeight="9920" xr2:uid="{150E7FB9-AAC7-684F-9B42-02331F762CE7}"/>
   </bookViews>
   <sheets>
     <sheet name="pages_with_public_use" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="23">
   <si>
     <t>path</t>
   </si>
@@ -79,12 +79,6 @@
     <t>Si desea copiar algo de este texto</t>
   </si>
   <si>
-    <t>press-releae-no-date</t>
-  </si>
-  <si>
-    <t>espanol/esp-press-releae-no-date</t>
-  </si>
-  <si>
     <t>/about-cancer/treatment/drugs/bevacizumab</t>
   </si>
   <si>
@@ -94,10 +88,13 @@
     <t>news-events/press-releases/2019/brca-exchange</t>
   </si>
   <si>
-    <t>about-nci/organization/nci-at-a-glance</t>
-  </si>
-  <si>
-    <t>Infogrpahic</t>
+    <t>news-events/press-releases/2018/leukemia-cll-ibrutinib-trial</t>
+  </si>
+  <si>
+    <t>about-cancer/coping/feelings/relaxation/loukissas-jennifer</t>
+  </si>
+  <si>
+    <t>Bio</t>
   </si>
 </sst>
 </file>
@@ -459,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E50E58-C20E-6840-B475-2B9A8D9E132C}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -470,7 +467,7 @@
     <col min="1" max="1" width="69.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.1640625" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="4" max="4" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -517,7 +514,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -531,43 +528,29 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D6" t="s">
         <v>16</v>
       </c>
     </row>
@@ -581,7 +564,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -614,7 +597,7 @@
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -626,10 +609,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -638,10 +621,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
